--- a/src/analysis_examples/circadb/results_jtk/cosinor_10541301_tuba8_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10541301_tuba8_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22720586220358274, 0.3912398763734455]</t>
+          <t>[0.22854557662649372, 0.3899001619505345]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.135346623382105e-07</v>
+        <v>8.731715639420656e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.135346623382105e-07</v>
+        <v>8.731715639420656e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8553685703467711</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.1195265111891564, -0.5912106295043857]</t>
+          <t>[-1.1069475616252333, -0.6037895790683088]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.159124521254995e-06</v>
+        <v>5.618527698647569e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.159124521254995e-06</v>
+        <v>5.618527698647569e-07</v>
       </c>
       <c r="S2" t="n">
         <v>0.4307245040816634</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3887415962080533, 0.4727074119552735]</t>
+          <t>[0.3887607893887208, 0.47268821877460604]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.200560560560639</v>
       </c>
       <c r="X2" t="n">
-        <v>2.212152152152207</v>
+        <v>2.259219219219275</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.188968968969071</v>
+        <v>4.141901901902004</v>
       </c>
     </row>
   </sheetData>
